--- a/Tarea 04/resultados-sismico.xlsx
+++ b/Tarea 04/resultados-sismico.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D491A870-F16A-40BD-A1E2-D39C5361E00C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Hedificio</t>
+  </si>
+  <si>
+    <t>Eje</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Período fundamental (s)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +70,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +354,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tarea 04/resultados-sismico.xlsx
+++ b/Tarea 04/resultados-sismico.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D491A870-F16A-40BD-A1E2-D39C5361E00C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFC0D9CA-4F1F-4249-B550-E4046585CEF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Hedificio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Eje</t>
   </si>
@@ -35,13 +35,53 @@
   </si>
   <si>
     <t>Período fundamental (s)</t>
+  </si>
+  <si>
+    <t>H edificio</t>
+  </si>
+  <si>
+    <t>Peso sismico</t>
+  </si>
+  <si>
+    <t>Center of mass and rigidicity</t>
+  </si>
+  <si>
+    <t>Peso proyectado</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>[tonf]</t>
+  </si>
+  <si>
+    <t>[tonf/g]</t>
+  </si>
+  <si>
+    <t>R*</t>
+  </si>
+  <si>
+    <t>1/R* [g] (scale factor)</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Scale factor ponderado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,17 +107,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -90,6 +138,46 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Espectro"/>
+      <sheetName val="Sde"/>
+      <sheetName val="Periodos"/>
+      <sheetName val="Cortes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="H21">
+            <v>10.605</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="H22">
+            <v>10.031000000000001</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="O31">
+            <v>3.0329999999999999</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="O32">
+            <v>2.41</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,42 +443,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2">
+        <v>1.1359999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>1152.96867</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <f>B9*9.80665</f>
+        <v>11306.760207655499</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11059.24556625</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <f>1-C12/C11</f>
+        <v>2.189085439681604E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <f>[1]Espectro!$H$21</f>
+        <v>10.605</v>
+      </c>
+      <c r="D16" s="1">
+        <f>1/C16*9.80665</f>
+        <v>0.92471947194719462</v>
+      </c>
+      <c r="E16" s="1">
+        <f>[1]Espectro!$O$31</f>
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <f>E16*D16</f>
+        <v>2.8046741584158412</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <f>[1]Espectro!$H$22</f>
+        <v>10.031000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <f>1/C17*9.80665</f>
+        <v>0.97763433356594542</v>
+      </c>
+      <c r="E17" s="1">
+        <f>[1]Espectro!$O$32</f>
+        <v>2.41</v>
+      </c>
+      <c r="F17" s="1">
+        <f>E17*D17</f>
+        <v>2.3560987438939285</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>